--- a/SCBAA/2017/Region 9.xlsx
+++ b/SCBAA/2017/Region 9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD25C58-5141-49EF-9C7F-F7C4507FAA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EF4513-BCF0-404A-80DB-2324178E9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="930" windowWidth="14625" windowHeight="12540" activeTab="3" xr2:uid="{F725A9FF-F9BB-4D11-A141-05DF55C1A19D}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" xr2:uid="{F725A9FF-F9BB-4D11-A141-05DF55C1A19D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dapitan" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,17 @@
     <sheet name="Pagadian" sheetId="3" r:id="rId3"/>
     <sheet name="Zamboanga" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -240,7 +247,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -491,11 +498,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -537,23 +544,11 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,6 +594,18 @@
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -923,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79D728-DC3F-4583-BEA7-9E95D5C9AE70}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,139 +944,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="3">
-        <f>16579302.08-7446302.59</f>
         <v>9132999.4900000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="3">
-        <f>9220604.52-8149980.45+953.84+1408914.69</f>
         <v>2480492.5999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="3">
@@ -1077,31 +1082,30 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>11613492.09</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="3">
@@ -1109,96 +1113,94 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="3">
-        <f>11208524.8+18300.92</f>
         <v>11226825.720000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>138476.82</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>14254472.380000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3">
         <v>582256851</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3">
         <v>590419.91</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="6">
@@ -1206,41 +1208,41 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="3">
@@ -1248,52 +1250,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="28">
+      <c r="D31" s="17"/>
+      <c r="E31" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="3">
@@ -1301,10 +1303,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="5">
@@ -1312,67 +1314,66 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="28">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>608715235.38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="3">
@@ -1380,22 +1381,21 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="3">
-        <f>149553734.14-L84</f>
         <v>149553734.13999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3">
@@ -1403,19 +1403,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="3">
@@ -1423,10 +1423,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="3">
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3">
@@ -1445,64 +1445,61 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="3">
-        <f>29933458.1-L63</f>
         <v>29933458.100000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="3">
-        <f>6756712.95-L64</f>
         <v>6756712.9500000002</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3">
-        <f>170000-L65</f>
         <v>170000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="3">
@@ -1510,83 +1507,83 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="29">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="3">
@@ -1594,10 +1591,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="3">
@@ -1605,10 +1602,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3">
@@ -1616,19 +1613,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="3">
@@ -1636,10 +1633,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="3">
@@ -1647,10 +1644,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3">
@@ -1658,19 +1655,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="6">
@@ -1678,10 +1675,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="6">
@@ -1689,10 +1686,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="10">
@@ -1700,59 +1697,59 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="35" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="3">
@@ -1760,42 +1757,42 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="35" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="3">
         <v>82387331.670000002</v>
       </c>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="35" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="3">
@@ -1803,18 +1800,18 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="9">
@@ -1822,10 +1819,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="9">
@@ -1833,31 +1830,30 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="3">
-        <f>784832.32+87000</f>
         <v>871832.32</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="3">
@@ -1865,19 +1861,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="3">
@@ -1885,10 +1881,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="3">
@@ -1896,95 +1892,94 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="28">
         <v>26000</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>596638092.41000009</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="7"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3">
         <v>238231.7</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="26">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="22">
         <v>91900</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3">
@@ -1992,17 +1987,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="5">
@@ -2010,34 +2005,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="29">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="4">
@@ -2045,17 +2040,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3">
@@ -2063,43 +2058,41 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3">
         <v>14133612.460000001</v>
       </c>
-      <c r="F110" s="38"/>
+      <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>14463744.16</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="A112" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>611101836.57000005</v>
       </c>
     </row>
@@ -2134,265 +2127,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="38">
         <v>58842250</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <v>47720797</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="39">
         <v>10249417</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="13">
         <f>SUM(E11:E13)</f>
         <v>116812464</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="40">
         <v>29377126</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="40">
         <v>194435046</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="41">
         <v>71222810</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="13">
         <f>SUM(E16:E18)</f>
         <v>295034982</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="44">
+      <c r="D21" s="17"/>
+      <c r="E21" s="40">
         <v>544553200</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="6">
@@ -2400,41 +2393,41 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="3">
@@ -2442,52 +2435,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="28">
+      <c r="D31" s="17"/>
+      <c r="E31" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="3">
@@ -2495,10 +2488,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="5">
@@ -2506,193 +2499,193 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="28">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="13">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>956400646</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="40">
         <v>99490412</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="40">
         <v>126486924</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="40">
         <v>25584243</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="38">
         <v>100000</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="38">
         <v>16919844</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="42">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="38">
         <v>8822825</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="44">
+      <c r="E50" s="40">
         <v>32431948</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="44">
+      <c r="E51" s="40">
         <v>96068527</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="44">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="40">
         <v>1910150</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="3">
@@ -2700,167 +2693,167 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="40">
         <v>735506</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="40">
         <v>7908894</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="29">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="40">
         <v>6447695</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="40">
         <v>15019475</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="44">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="40">
         <v>3169818</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="40">
         <v>64767970</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="40">
         <v>109483941</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="44">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="40">
         <v>8229911</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="6">
@@ -2868,10 +2861,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="6">
@@ -2879,10 +2872,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="10">
@@ -2890,121 +2883,121 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="44">
+      <c r="E75" s="40">
         <v>8377507</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="40">
         <v>24883916</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="35" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="40">
         <v>39242884</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="35" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="35" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="40">
         <v>75155002.400000006</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="9">
@@ -3012,10 +3005,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="9">
@@ -3023,19 +3016,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="3">
@@ -3043,10 +3036,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="3">
@@ -3054,19 +3047,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="3">
@@ -3074,10 +3067,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="3">
@@ -3085,95 +3078,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="8">
         <f>SUM(E41:E92)</f>
         <v>771237392.39999998</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="7"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="44">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="40">
         <v>416499</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3">
@@ -3181,17 +3174,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="5">
@@ -3199,34 +3192,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="44">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="40">
         <v>7032654</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="4">
@@ -3234,45 +3227,45 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="44">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="40">
         <v>40471725</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3">
         <v>0</v>
       </c>
-      <c r="F110" s="38"/>
+      <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
@@ -3281,12 +3274,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="A112" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>819158270.39999998</v>
@@ -3323,115 +3316,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="3">
@@ -3439,10 +3432,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="3">
@@ -3450,10 +3443,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="3">
@@ -3461,31 +3454,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="13">
         <f>SUM(E11:E13)</f>
         <v>116597775.66</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="3">
@@ -3493,10 +3486,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="3">
@@ -3504,84 +3497,84 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>104419.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="13">
         <f>SUM(E16:E18)</f>
         <v>120528881.69999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3">
         <v>733498256</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3">
         <v>4286988.2300000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="6">
@@ -3589,41 +3582,41 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="3">
@@ -3631,52 +3624,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="28">
+      <c r="D31" s="17"/>
+      <c r="E31" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="3">
@@ -3684,10 +3677,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="5">
@@ -3695,67 +3688,67 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="28">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="13">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>974912901.59000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="3">
@@ -3763,10 +3756,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="3">
@@ -3774,10 +3767,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3">
@@ -3785,19 +3778,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="3">
@@ -3805,10 +3798,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="3">
@@ -3816,10 +3809,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3">
@@ -3827,19 +3820,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="3">
@@ -3847,10 +3840,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="3">
@@ -3858,10 +3851,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3">
@@ -3869,19 +3862,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="3">
@@ -3889,83 +3882,83 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <v>1909904.46</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="29">
         <v>361689.96</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="29">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="25">
         <v>36000</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="3">
@@ -3973,10 +3966,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="3">
@@ -3984,10 +3977,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3">
@@ -3995,19 +3988,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="3">
@@ -4015,10 +4008,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="3">
@@ -4026,10 +4019,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3">
@@ -4037,19 +4030,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="6">
@@ -4057,10 +4050,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="6">
@@ -4068,10 +4061,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="10">
@@ -4079,59 +4072,59 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="30">
         <v>40000000</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="35" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="3">
@@ -4139,61 +4132,61 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="22">
         <v>4263702.01</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="35" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81" s="37">
         <v>41632655.869999997</v>
       </c>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="35" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="41">
+      <c r="E82" s="37">
         <v>72004618.519999996</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="9">
@@ -4201,10 +4194,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="9">
@@ -4212,19 +4205,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="3">
@@ -4232,10 +4225,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="3">
@@ -4243,19 +4236,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="3">
@@ -4263,10 +4256,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="3">
@@ -4274,95 +4267,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="28">
         <v>10624316.16</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="8">
         <f>SUM(E41:E92)</f>
         <v>846733429.51999986</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="7"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="41">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="37">
         <v>10684626.15</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="26">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3">
@@ -4370,17 +4363,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="5">
@@ -4388,34 +4381,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="29">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="4">
@@ -4423,45 +4416,45 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="41">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="37">
         <v>49298399.060000002</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="41">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="37">
         <v>42200121.950000003</v>
       </c>
-      <c r="F110" s="38"/>
+      <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
@@ -4470,12 +4463,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="A112" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>948916576.67999983</v>
@@ -4499,7 +4492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3259F1-2697-4165-B0AA-9B689A560422}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -4513,115 +4506,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="3">
@@ -4629,10 +4622,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="3">
@@ -4640,10 +4633,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="3">
@@ -4651,31 +4644,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="13">
         <f>SUM(E11:E13)</f>
         <v>602088000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="3">
@@ -4683,10 +4676,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="3">
@@ -4694,10 +4687,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="3">
@@ -4705,62 +4698,62 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="13">
         <f>SUM(E16:E18)</f>
         <v>239874000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3">
         <v>2368756000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3">
         <v>9253000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="3">
@@ -4768,10 +4761,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="3">
@@ -4779,41 +4772,41 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="3">
@@ -4821,52 +4814,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="28">
+      <c r="D31" s="17"/>
+      <c r="E31" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="3">
@@ -4874,10 +4867,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="5">
@@ -4885,67 +4878,67 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="28">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="13">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>3221134000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="3">
@@ -4953,10 +4946,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="3">
@@ -4964,10 +4957,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3">
@@ -4975,19 +4968,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="3">
@@ -4995,10 +4988,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="3">
@@ -5006,10 +4999,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3">
@@ -5017,19 +5010,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="3">
@@ -5037,10 +5030,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="3">
@@ -5048,10 +5041,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3">
@@ -5059,19 +5052,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="3">
@@ -5079,10 +5072,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="3">
@@ -5090,30 +5083,30 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="3">
@@ -5121,10 +5114,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="3">
@@ -5132,10 +5125,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="3">
@@ -5143,19 +5136,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="3">
@@ -5163,10 +5156,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="3">
@@ -5174,10 +5167,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3">
@@ -5185,19 +5178,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="3">
@@ -5205,10 +5198,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="3">
@@ -5216,10 +5209,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3">
@@ -5227,19 +5220,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="6">
@@ -5247,10 +5240,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="6">
@@ -5258,10 +5251,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="10">
@@ -5269,59 +5262,59 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="35" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="3">
@@ -5329,10 +5322,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="3">
@@ -5340,31 +5333,31 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="35" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="35" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="3">
@@ -5372,18 +5365,18 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="9">
@@ -5391,10 +5384,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="9">
@@ -5402,19 +5395,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="3">
@@ -5422,10 +5415,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="3">
@@ -5433,19 +5426,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="3">
@@ -5453,10 +5446,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="3">
@@ -5464,77 +5457,77 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="8">
         <f>SUM(E41:E92)</f>
         <v>1711027000</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="7"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3">
         <v>32116000</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="3">
@@ -5542,17 +5535,17 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3">
@@ -5560,17 +5553,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="5">
@@ -5578,17 +5571,17 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="3">
@@ -5596,16 +5589,16 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="3">
@@ -5613,17 +5606,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3">
@@ -5631,27 +5624,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3">
         <v>177303000</v>
       </c>
-      <c r="F110" s="38"/>
+      <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
@@ -5660,12 +5653,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="A112" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>2283485000</v>
